--- a/data/trans_orig/P45C_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R2-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAEA1D27-66A1-4AE1-AFA9-4946CC10EEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73E4A917-6CC8-4824-823D-B0574F4A45C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4D7803BA-1AE4-4D6A-89D6-023DDFF22B41}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6D7847B-FFA3-4A26-A57A-30D80641E414}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="498">
   <si>
     <t>Población con alguna quemadura solar en el último año en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -77,1458 +77,1449 @@
     <t>23,81%</t>
   </si>
   <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
   </si>
   <si>
     <t>27,11%</t>
   </si>
   <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
   </si>
   <si>
     <t>25,41%</t>
   </si>
   <si>
-    <t>22,74%</t>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
   </si>
   <si>
     <t>28,44%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
   </si>
   <si>
     <t>71,56%</t>
   </si>
   <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>14,75%</t>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
   </si>
   <si>
     <t>12,16%</t>
   </si>
   <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
   </si>
   <si>
     <t>87,84%</t>
   </si>
   <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
   </si>
   <si>
     <t>18,12%</t>
   </si>
   <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
   </si>
   <si>
     <t>81,88%</t>
   </si>
   <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2015 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
   </si>
   <si>
     <t>15,36%</t>
   </si>
   <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
   </si>
   <si>
     <t>84,64%</t>
   </si>
   <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
     <t>86,82%</t>
   </si>
   <si>
@@ -1536,9 +1527,6 @@
   </si>
   <si>
     <t>88,42%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
   </si>
   <si>
     <t>84,08%</t>
@@ -1956,7 +1944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AC8969-AD23-4913-A47B-FB9DDAF8D78C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8D76FB-C902-4FEF-9147-CAB841830D7D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2143,7 +2131,7 @@
         <v>351</v>
       </c>
       <c r="I5" s="7">
-        <v>339444</v>
+        <v>339443</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2194,7 +2182,7 @@
         <v>487</v>
       </c>
       <c r="I6" s="7">
-        <v>465690</v>
+        <v>465689</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2232,7 +2220,7 @@
         <v>156</v>
       </c>
       <c r="D7" s="7">
-        <v>154574</v>
+        <v>154573</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2334,7 +2322,7 @@
         <v>701</v>
       </c>
       <c r="D9" s="7">
-        <v>733589</v>
+        <v>733588</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2426,7 +2414,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,13 +2429,13 @@
         <v>543764</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>581</v>
@@ -2456,13 +2444,13 @@
         <v>609805</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1100</v>
@@ -2471,13 +2459,13 @@
         <v>1153569</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,7 +2521,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2545,13 +2533,13 @@
         <v>82895</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -2560,13 +2548,13 @@
         <v>50621</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>125</v>
@@ -2575,13 +2563,13 @@
         <v>133516</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,13 +2584,13 @@
         <v>435103</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>451</v>
@@ -2611,13 +2599,13 @@
         <v>462995</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>858</v>
@@ -2626,13 +2614,13 @@
         <v>898098</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,7 +2676,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2700,13 +2688,13 @@
         <v>37209</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -2715,13 +2703,13 @@
         <v>28216</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -2730,13 +2718,13 @@
         <v>65425</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2739,13 @@
         <v>348434</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>368</v>
@@ -2766,13 +2754,13 @@
         <v>375770</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>721</v>
@@ -2781,13 +2769,13 @@
         <v>724204</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2831,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2855,13 +2843,13 @@
         <v>27478</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -2870,13 +2858,13 @@
         <v>19290</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -2885,13 +2873,13 @@
         <v>46768</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2894,13 @@
         <v>473932</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>639</v>
@@ -2921,13 +2909,13 @@
         <v>655311</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>1134</v>
@@ -2936,13 +2924,13 @@
         <v>1129243</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,13 +2998,13 @@
         <v>513467</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>421</v>
@@ -3025,13 +3013,13 @@
         <v>418942</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>927</v>
@@ -3040,13 +3028,13 @@
         <v>932409</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3049,13 @@
         <v>2755397</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>2868</v>
@@ -3076,13 +3064,13 @@
         <v>2952057</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>5568</v>
@@ -3091,13 +3079,13 @@
         <v>5707455</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,7 +3141,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3175,7 +3163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026D723D-6343-4596-9894-E32147465901}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BB4159-B121-4793-82EF-12AF85F4CCF1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3192,7 +3180,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3299,13 +3287,13 @@
         <v>142909</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H4" s="7">
         <v>127</v>
@@ -3314,13 +3302,13 @@
         <v>127869</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M4" s="7">
         <v>270</v>
@@ -3329,13 +3317,13 @@
         <v>270778</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3338,13 @@
         <v>307752</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>290</v>
@@ -3365,13 +3353,13 @@
         <v>298159</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M5" s="7">
         <v>590</v>
@@ -3380,13 +3368,13 @@
         <v>605911</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3442,13 @@
         <v>168465</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H7" s="7">
         <v>84</v>
@@ -3469,13 +3457,13 @@
         <v>89046</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M7" s="7">
         <v>250</v>
@@ -3484,13 +3472,13 @@
         <v>257511</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3493,13 @@
         <v>513857</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H8" s="7">
         <v>485</v>
@@ -3520,13 +3508,13 @@
         <v>519281</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>981</v>
@@ -3535,13 +3523,13 @@
         <v>1033138</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3597,13 @@
         <v>111902</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>99</v>
@@ -3624,13 +3612,13 @@
         <v>108101</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7">
         <v>205</v>
@@ -3639,13 +3627,13 @@
         <v>220003</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,28 +3648,28 @@
         <v>567120</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H11" s="7">
         <v>562</v>
       </c>
       <c r="I11" s="7">
-        <v>596355</v>
+        <v>596356</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M11" s="7">
         <v>1104</v>
@@ -3690,13 +3678,13 @@
         <v>1163475</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,7 +3711,7 @@
         <v>661</v>
       </c>
       <c r="I12" s="7">
-        <v>704456</v>
+        <v>704457</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3752,7 +3740,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3764,13 +3752,13 @@
         <v>101534</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -3779,13 +3767,13 @@
         <v>70629</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="M13" s="7">
         <v>161</v>
@@ -3794,13 +3782,13 @@
         <v>172162</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3803,13 @@
         <v>506737</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H14" s="7">
         <v>471</v>
@@ -3830,13 +3818,13 @@
         <v>541296</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M14" s="7">
         <v>916</v>
@@ -3845,13 +3833,13 @@
         <v>1048034</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,7 +3895,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3919,13 +3907,13 @@
         <v>43124</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -3934,13 +3922,13 @@
         <v>41502</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -3949,13 +3937,13 @@
         <v>84626</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +3958,13 @@
         <v>384234</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H17" s="7">
         <v>365</v>
@@ -3985,13 +3973,13 @@
         <v>404158</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M17" s="7">
         <v>714</v>
@@ -4000,13 +3988,13 @@
         <v>788392</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,7 +4050,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4074,13 +4062,13 @@
         <v>29972</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -4089,13 +4077,13 @@
         <v>37543</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M19" s="7">
         <v>64</v>
@@ -4104,13 +4092,13 @@
         <v>67515</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,13 +4113,13 @@
         <v>521443</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H20" s="7">
         <v>644</v>
@@ -4140,13 +4128,13 @@
         <v>689488</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>1111</v>
@@ -4155,13 +4143,13 @@
         <v>1210930</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4217,13 @@
         <v>597905</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H22" s="7">
         <v>448</v>
@@ -4244,13 +4232,13 @@
         <v>474690</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M22" s="7">
         <v>1031</v>
@@ -4259,13 +4247,13 @@
         <v>1072595</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4268,13 @@
         <v>2801143</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H23" s="7">
         <v>2817</v>
@@ -4295,28 +4283,28 @@
         <v>3048737</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>5416</v>
       </c>
       <c r="N23" s="7">
-        <v>5849880</v>
+        <v>5849879</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,7 +4346,7 @@
         <v>6447</v>
       </c>
       <c r="N24" s="7">
-        <v>6922475</v>
+        <v>6922474</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4372,7 +4360,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4394,7 +4382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88B9210-40D3-4785-9BAD-C487B9C6C5BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D26DE1-12FB-45A5-85FF-D58FC630095B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4411,7 +4399,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4518,13 +4506,13 @@
         <v>100261</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>98</v>
@@ -4533,13 +4521,13 @@
         <v>97095</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M4" s="7">
         <v>189</v>
@@ -4548,13 +4536,13 @@
         <v>197356</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4557,13 @@
         <v>314551</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H5" s="7">
         <v>305</v>
@@ -4584,13 +4572,13 @@
         <v>297634</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>603</v>
@@ -4599,13 +4587,13 @@
         <v>612186</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4661,13 @@
         <v>109496</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -4688,13 +4676,13 @@
         <v>125148</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M7" s="7">
         <v>234</v>
@@ -4703,13 +4691,13 @@
         <v>234644</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4712,13 @@
         <v>475784</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H8" s="7">
         <v>450</v>
@@ -4739,13 +4727,13 @@
         <v>437456</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M8" s="7">
         <v>906</v>
@@ -4754,13 +4742,13 @@
         <v>913240</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4816,13 @@
         <v>82366</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H10" s="7">
         <v>88</v>
@@ -4843,13 +4831,13 @@
         <v>88015</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -4858,13 +4846,13 @@
         <v>170381</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>91</v>
+        <v>307</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4867,13 @@
         <v>583727</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H11" s="7">
         <v>573</v>
@@ -4894,13 +4882,13 @@
         <v>568781</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M11" s="7">
         <v>1129</v>
@@ -4909,13 +4897,13 @@
         <v>1152508</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>99</v>
+        <v>316</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,7 +4959,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4983,13 +4971,13 @@
         <v>78187</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>52</v>
+        <v>319</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -4998,13 +4986,13 @@
         <v>71699</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M13" s="7">
         <v>138</v>
@@ -5013,13 +5001,13 @@
         <v>149886</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,7 +5022,7 @@
         <v>564689</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>328</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>329</v>
@@ -5126,7 +5114,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5159,7 +5147,7 @@
         <v>341</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>181</v>
+        <v>342</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -5168,13 +5156,13 @@
         <v>102458</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>344</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,10 +5195,10 @@
         <v>348</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>349</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M17" s="7">
         <v>762</v>
@@ -5219,10 +5207,10 @@
         <v>865218</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>352</v>
@@ -5281,7 +5269,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5329,7 +5317,7 @@
         <v>360</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>361</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,13 +5332,13 @@
         <v>549422</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H20" s="7">
         <v>609</v>
@@ -5359,13 +5347,13 @@
         <v>724608</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>1196</v>
@@ -5374,13 +5362,13 @@
         <v>1274030</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5436,13 @@
         <v>453154</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>257</v>
+        <v>370</v>
       </c>
       <c r="H22" s="7">
         <v>463</v>
@@ -5463,13 +5451,13 @@
         <v>477446</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M22" s="7">
         <v>886</v>
@@ -5478,13 +5466,13 @@
         <v>930600</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,13 +5487,13 @@
         <v>2912118</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>267</v>
+        <v>376</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H23" s="7">
         <v>2852</v>
@@ -5514,13 +5502,13 @@
         <v>3040762</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M23" s="7">
         <v>5633</v>
@@ -5529,13 +5517,13 @@
         <v>5952880</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,7 +5579,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5613,7 +5601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AEA3C7-4962-49D8-98B7-32F8E696D4A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F27D72-6FC4-4D1F-B27B-B8CCDC94A026}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5630,7 +5618,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5737,13 +5725,13 @@
         <v>85298</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H4" s="7">
         <v>46</v>
@@ -5752,13 +5740,13 @@
         <v>77724</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>289</v>
+        <v>387</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>251</v>
+        <v>388</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>389</v>
+        <v>267</v>
       </c>
       <c r="M4" s="7">
         <v>83</v>
@@ -5767,13 +5755,13 @@
         <v>163022</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5776,13 @@
         <v>292381</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="H5" s="7">
         <v>161</v>
@@ -5803,13 +5791,13 @@
         <v>277233</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>297</v>
+        <v>394</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>396</v>
+        <v>275</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>261</v>
+        <v>395</v>
       </c>
       <c r="M5" s="7">
         <v>296</v>
@@ -5818,13 +5806,13 @@
         <v>569614</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>398</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>399</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5880,13 @@
         <v>116263</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H7" s="7">
         <v>87</v>
@@ -5907,13 +5895,13 @@
         <v>101881</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M7" s="7">
         <v>162</v>
@@ -5922,13 +5910,13 @@
         <v>218145</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5931,13 @@
         <v>312133</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="H8" s="7">
         <v>372</v>
@@ -5958,13 +5946,13 @@
         <v>396536</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="M8" s="7">
         <v>599</v>
@@ -5973,13 +5961,13 @@
         <v>708669</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,13 +6035,13 @@
         <v>119323</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="H10" s="7">
         <v>125</v>
@@ -6062,13 +6050,13 @@
         <v>93920</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M10" s="7">
         <v>232</v>
@@ -6077,13 +6065,13 @@
         <v>213243</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6086,13 @@
         <v>434315</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="H11" s="7">
         <v>721</v>
@@ -6113,13 +6101,13 @@
         <v>489556</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="M11" s="7">
         <v>1158</v>
@@ -6128,13 +6116,13 @@
         <v>923871</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,7 +6178,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6202,13 +6190,13 @@
         <v>108673</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H13" s="7">
         <v>149</v>
@@ -6217,13 +6205,13 @@
         <v>104242</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="M13" s="7">
         <v>247</v>
@@ -6232,13 +6220,13 @@
         <v>212914</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6241,13 @@
         <v>614171</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="H14" s="7">
         <v>989</v>
@@ -6268,13 +6256,13 @@
         <v>640974</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="M14" s="7">
         <v>1555</v>
@@ -6283,13 +6271,13 @@
         <v>1255146</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>448</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>449</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,7 +6333,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6357,13 +6345,13 @@
         <v>83111</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="H16" s="7">
         <v>114</v>
@@ -6372,13 +6360,13 @@
         <v>70121</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="M16" s="7">
         <v>202</v>
@@ -6387,13 +6375,13 @@
         <v>153232</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6396,13 @@
         <v>516029</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="H17" s="7">
         <v>887</v>
@@ -6423,13 +6411,13 @@
         <v>526296</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="M17" s="7">
         <v>1461</v>
@@ -6438,13 +6426,13 @@
         <v>1042325</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,7 +6488,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6512,13 +6500,13 @@
         <v>60134</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="H19" s="7">
         <v>106</v>
@@ -6527,13 +6515,13 @@
         <v>53561</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>473</v>
+        <v>236</v>
       </c>
       <c r="M19" s="7">
         <v>200</v>
@@ -6542,13 +6530,13 @@
         <v>113695</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,13 +6551,13 @@
         <v>636136</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H20" s="7">
         <v>1601</v>
@@ -6578,13 +6566,13 @@
         <v>972426</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>481</v>
+        <v>244</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="M20" s="7">
         <v>2532</v>
@@ -6593,13 +6581,13 @@
         <v>1608563</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,13 +6655,13 @@
         <v>572801</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>288</v>
+        <v>483</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H22" s="7">
         <v>627</v>
@@ -6682,13 +6670,13 @@
         <v>501448</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="M22" s="7">
         <v>1126</v>
@@ -6697,13 +6685,13 @@
         <v>1074250</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>491</v>
+        <v>75</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6706,13 @@
         <v>2805166</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>298</v>
+        <v>492</v>
       </c>
       <c r="H23" s="7">
         <v>4731</v>
@@ -6733,13 +6721,13 @@
         <v>3303022</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M23" s="7">
         <v>7601</v>
@@ -6748,13 +6736,13 @@
         <v>6108188</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>499</v>
+        <v>82</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,7 +6798,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P45C_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73E4A917-6CC8-4824-823D-B0574F4A45C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4669ED0D-A8BB-496B-9F12-DE4B41F31806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6D7847B-FFA3-4A26-A57A-30D80641E414}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{35BD127E-F22C-4AFE-AEB3-53A14F44A154}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="502">
   <si>
     <t>Población con alguna quemadura solar en el último año en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>23,81%</t>
   </si>
   <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
   </si>
   <si>
     <t>27,11%</t>
   </si>
   <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
   </si>
   <si>
     <t>25,41%</t>
   </si>
   <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>76,19%</t>
   </si>
   <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
   </si>
   <si>
     <t>72,89%</t>
   </si>
   <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
   </si>
   <si>
     <t>74,59%</t>
   </si>
   <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>21,07%</t>
   </si>
   <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
   </si>
   <si>
     <t>18,52%</t>
   </si>
   <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
   </si>
   <si>
     <t>19,9%</t>
   </si>
   <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
   </si>
   <si>
     <t>78,93%</t>
   </si>
   <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
   </si>
   <si>
     <t>81,48%</t>
   </si>
   <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
   </si>
   <si>
     <t>80,1%</t>
   </si>
   <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,16 +197,16 @@
     <t>14,75%</t>
   </si>
   <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
   </si>
   <si>
     <t>11,46%</t>
   </si>
   <si>
-    <t>9,22%</t>
+    <t>9,43%</t>
   </si>
   <si>
     <t>14,24%</t>
@@ -215,16 +215,19 @@
     <t>13,04%</t>
   </si>
   <si>
-    <t>11,28%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
   </si>
   <si>
     <t>85,25%</t>
   </si>
   <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
   </si>
   <si>
     <t>88,54%</t>
@@ -233,13 +236,16 @@
     <t>85,76%</t>
   </si>
   <si>
-    <t>90,78%</t>
+    <t>90,57%</t>
   </si>
   <si>
     <t>86,96%</t>
   </si>
   <si>
-    <t>88,72%</t>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -248,1291 +254,1297 @@
     <t>16,0%</t>
   </si>
   <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
   </si>
   <si>
     <t>14,96%</t>
   </si>
   <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
   </si>
   <si>
     <t>85,04%</t>
   </si>
   <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2016 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
+    <t>84,05%</t>
   </si>
 </sst>
 </file>
@@ -1944,7 +1956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8D76FB-C902-4FEF-9147-CAB841830D7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47422C23-DDB0-4697-B9A5-FF08E6662110}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2220,7 +2232,7 @@
         <v>156</v>
       </c>
       <c r="D7" s="7">
-        <v>154573</v>
+        <v>154574</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2322,7 +2334,7 @@
         <v>701</v>
       </c>
       <c r="D9" s="7">
-        <v>733588</v>
+        <v>733589</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2414,7 +2426,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,13 +2441,13 @@
         <v>543764</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>581</v>
@@ -2444,13 +2456,13 @@
         <v>609805</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1100</v>
@@ -2459,13 +2471,13 @@
         <v>1153569</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,7 +2533,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2533,13 +2545,13 @@
         <v>82895</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -2548,13 +2560,13 @@
         <v>50621</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>125</v>
@@ -2563,13 +2575,13 @@
         <v>133516</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,13 +2596,13 @@
         <v>435103</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>451</v>
@@ -2599,13 +2611,13 @@
         <v>462995</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>858</v>
@@ -2614,13 +2626,13 @@
         <v>898098</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,7 +2688,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2688,13 +2700,13 @@
         <v>37209</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -2703,13 +2715,13 @@
         <v>28216</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -2718,13 +2730,13 @@
         <v>65425</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,13 +2751,13 @@
         <v>348434</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>368</v>
@@ -2754,13 +2766,13 @@
         <v>375770</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>721</v>
@@ -2769,13 +2781,13 @@
         <v>724204</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,7 +2843,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2843,13 +2855,13 @@
         <v>27478</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -2858,13 +2870,13 @@
         <v>19290</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -2873,13 +2885,13 @@
         <v>46768</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,13 +2906,13 @@
         <v>473932</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>639</v>
@@ -2909,13 +2921,13 @@
         <v>655311</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>1134</v>
@@ -2924,13 +2936,13 @@
         <v>1129243</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +3010,13 @@
         <v>513467</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>421</v>
@@ -3013,13 +3025,13 @@
         <v>418942</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>927</v>
@@ -3028,13 +3040,13 @@
         <v>932409</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3061,13 @@
         <v>2755397</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>2868</v>
@@ -3064,13 +3076,13 @@
         <v>2952057</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>5568</v>
@@ -3079,13 +3091,13 @@
         <v>5707455</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,7 +3153,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +3175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BB4159-B121-4793-82EF-12AF85F4CCF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416F1694-D02D-46AB-A0FE-0CA84CD0099F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3180,7 +3192,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3287,13 +3299,13 @@
         <v>142909</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>127</v>
@@ -3302,13 +3314,13 @@
         <v>127869</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>270</v>
@@ -3317,13 +3329,13 @@
         <v>270778</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3350,13 @@
         <v>307752</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>290</v>
@@ -3353,13 +3365,13 @@
         <v>298159</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>590</v>
@@ -3368,13 +3380,13 @@
         <v>605911</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3454,13 @@
         <v>168465</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>84</v>
@@ -3457,13 +3469,13 @@
         <v>89046</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>250</v>
@@ -3472,13 +3484,13 @@
         <v>257511</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3505,13 @@
         <v>513857</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>485</v>
@@ -3508,13 +3520,13 @@
         <v>519281</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>981</v>
@@ -3523,13 +3535,13 @@
         <v>1033138</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3609,13 @@
         <v>111902</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>99</v>
@@ -3612,13 +3624,13 @@
         <v>108101</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>205</v>
@@ -3627,13 +3639,13 @@
         <v>220003</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,16 +3657,16 @@
         <v>542</v>
       </c>
       <c r="D11" s="7">
-        <v>567120</v>
+        <v>567119</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>562</v>
@@ -3663,13 +3675,13 @@
         <v>596356</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>1104</v>
@@ -3678,13 +3690,13 @@
         <v>1163475</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,7 +3708,7 @@
         <v>648</v>
       </c>
       <c r="D12" s="7">
-        <v>679022</v>
+        <v>679021</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3740,7 +3752,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3752,13 +3764,13 @@
         <v>101534</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -3767,13 +3779,13 @@
         <v>70629</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>161</v>
@@ -3782,13 +3794,13 @@
         <v>172162</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +3815,13 @@
         <v>506737</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>471</v>
@@ -3818,13 +3830,13 @@
         <v>541296</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>916</v>
@@ -3833,13 +3845,13 @@
         <v>1048034</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,7 +3907,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3907,13 +3919,13 @@
         <v>43124</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -3922,13 +3934,13 @@
         <v>41502</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -3937,13 +3949,13 @@
         <v>84626</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,13 +3970,13 @@
         <v>384234</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>365</v>
@@ -3973,13 +3985,13 @@
         <v>404158</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>714</v>
@@ -3988,13 +4000,13 @@
         <v>788392</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,7 +4062,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4062,13 +4074,13 @@
         <v>29972</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -4077,13 +4089,13 @@
         <v>37543</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>64</v>
@@ -4092,13 +4104,13 @@
         <v>67515</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,13 +4125,13 @@
         <v>521443</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>644</v>
@@ -4128,13 +4140,13 @@
         <v>689488</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>1111</v>
@@ -4143,13 +4155,13 @@
         <v>1210930</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4229,13 @@
         <v>597905</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>448</v>
@@ -4232,13 +4244,13 @@
         <v>474690</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M22" s="7">
         <v>1031</v>
@@ -4247,13 +4259,13 @@
         <v>1072595</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,13 +4280,13 @@
         <v>2801143</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H23" s="7">
         <v>2817</v>
@@ -4283,28 +4295,28 @@
         <v>3048737</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>5416</v>
       </c>
       <c r="N23" s="7">
-        <v>5849879</v>
+        <v>5849880</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,7 +4358,7 @@
         <v>6447</v>
       </c>
       <c r="N24" s="7">
-        <v>6922474</v>
+        <v>6922475</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4360,7 +4372,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4382,7 +4394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D26DE1-12FB-45A5-85FF-D58FC630095B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F7D9E6-0B4B-453A-AE31-17E77EBFE31F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4399,7 +4411,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4506,13 +4518,13 @@
         <v>100261</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H4" s="7">
         <v>98</v>
@@ -4521,13 +4533,13 @@
         <v>97095</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>189</v>
@@ -4536,13 +4548,13 @@
         <v>197356</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +4569,13 @@
         <v>314551</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H5" s="7">
         <v>305</v>
@@ -4572,13 +4584,13 @@
         <v>297634</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M5" s="7">
         <v>603</v>
@@ -4587,13 +4599,13 @@
         <v>612186</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4673,13 @@
         <v>109496</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -4676,13 +4688,13 @@
         <v>125148</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M7" s="7">
         <v>234</v>
@@ -4691,13 +4703,13 @@
         <v>234644</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +4724,13 @@
         <v>475784</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H8" s="7">
         <v>450</v>
@@ -4727,13 +4739,13 @@
         <v>437456</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M8" s="7">
         <v>906</v>
@@ -4742,13 +4754,13 @@
         <v>913240</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +4828,13 @@
         <v>82366</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H10" s="7">
         <v>88</v>
@@ -4831,13 +4843,13 @@
         <v>88015</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -4846,13 +4858,13 @@
         <v>170381</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>307</v>
+        <v>75</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +4879,13 @@
         <v>583727</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H11" s="7">
         <v>573</v>
@@ -4882,13 +4894,13 @@
         <v>568781</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M11" s="7">
         <v>1129</v>
@@ -4897,13 +4909,13 @@
         <v>1152508</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>316</v>
+        <v>83</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,7 +4971,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4971,13 +4983,13 @@
         <v>78187</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -4986,13 +4998,13 @@
         <v>71699</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M13" s="7">
         <v>138</v>
@@ -5001,13 +5013,13 @@
         <v>149886</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,13 +5034,13 @@
         <v>564689</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>530</v>
@@ -5037,13 +5049,13 @@
         <v>571009</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>1037</v>
@@ -5052,13 +5064,13 @@
         <v>1135698</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,7 +5126,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5126,13 +5138,13 @@
         <v>50504</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -5141,13 +5153,13 @@
         <v>51954</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -5156,13 +5168,13 @@
         <v>102458</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,13 +5189,13 @@
         <v>423944</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H17" s="7">
         <v>385</v>
@@ -5192,13 +5204,13 @@
         <v>441273</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M17" s="7">
         <v>762</v>
@@ -5207,13 +5219,13 @@
         <v>865218</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,7 +5281,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5281,13 +5293,13 @@
         <v>32340</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
@@ -5296,13 +5308,13 @@
         <v>43536</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="M19" s="7">
         <v>69</v>
@@ -5311,13 +5323,13 @@
         <v>75876</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>233</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,13 +5344,13 @@
         <v>549422</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="H20" s="7">
         <v>609</v>
@@ -5347,13 +5359,13 @@
         <v>724608</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M20" s="7">
         <v>1196</v>
@@ -5362,13 +5374,13 @@
         <v>1274030</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>241</v>
+        <v>371</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,13 +5448,13 @@
         <v>453154</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H22" s="7">
         <v>463</v>
@@ -5451,13 +5463,13 @@
         <v>477446</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>371</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="M22" s="7">
         <v>886</v>
@@ -5466,13 +5478,13 @@
         <v>930600</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,13 +5499,13 @@
         <v>2912118</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H23" s="7">
         <v>2852</v>
@@ -5502,13 +5514,13 @@
         <v>3040762</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>379</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>5633</v>
@@ -5517,13 +5529,13 @@
         <v>5952880</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,7 +5591,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5601,7 +5613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F27D72-6FC4-4D1F-B27B-B8CCDC94A026}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F099B756-6BAE-4A8B-BA54-A09ACF70BF61}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5618,7 +5630,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5725,13 +5737,13 @@
         <v>85298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H4" s="7">
         <v>46</v>
@@ -5740,13 +5752,13 @@
         <v>77724</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>267</v>
+        <v>391</v>
       </c>
       <c r="M4" s="7">
         <v>83</v>
@@ -5755,13 +5767,13 @@
         <v>163022</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>393</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5788,13 @@
         <v>292381</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H5" s="7">
         <v>161</v>
@@ -5791,13 +5803,13 @@
         <v>277233</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>275</v>
+        <v>399</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="M5" s="7">
         <v>296</v>
@@ -5806,13 +5818,13 @@
         <v>569614</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5892,13 @@
         <v>116263</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="H7" s="7">
         <v>87</v>
@@ -5895,13 +5907,13 @@
         <v>101881</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>402</v>
+        <v>162</v>
       </c>
       <c r="M7" s="7">
         <v>162</v>
@@ -5910,13 +5922,13 @@
         <v>218145</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,13 +5943,13 @@
         <v>312133</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="H8" s="7">
         <v>372</v>
@@ -5946,13 +5958,13 @@
         <v>396536</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>409</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M8" s="7">
         <v>599</v>
@@ -5961,13 +5973,13 @@
         <v>708669</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6047,13 @@
         <v>119323</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>415</v>
+        <v>188</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="H10" s="7">
         <v>125</v>
@@ -6050,13 +6062,13 @@
         <v>93920</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M10" s="7">
         <v>232</v>
@@ -6065,13 +6077,13 @@
         <v>213243</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6098,13 @@
         <v>434315</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>425</v>
+        <v>196</v>
       </c>
       <c r="H11" s="7">
         <v>721</v>
@@ -6101,13 +6113,13 @@
         <v>489556</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M11" s="7">
         <v>1158</v>
@@ -6116,13 +6128,13 @@
         <v>923871</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,7 +6190,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6190,13 +6202,13 @@
         <v>108673</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H13" s="7">
         <v>149</v>
@@ -6205,13 +6217,13 @@
         <v>104242</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M13" s="7">
         <v>247</v>
@@ -6220,13 +6232,13 @@
         <v>212914</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>250</v>
+        <v>441</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6253,13 @@
         <v>614171</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H14" s="7">
         <v>989</v>
@@ -6256,13 +6268,13 @@
         <v>640974</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="M14" s="7">
         <v>1555</v>
@@ -6271,13 +6283,13 @@
         <v>1255146</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6333,7 +6345,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6345,13 +6357,13 @@
         <v>83111</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="H16" s="7">
         <v>114</v>
@@ -6360,13 +6372,13 @@
         <v>70121</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M16" s="7">
         <v>202</v>
@@ -6375,13 +6387,13 @@
         <v>153232</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6408,13 @@
         <v>516029</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="H17" s="7">
         <v>887</v>
@@ -6411,13 +6423,13 @@
         <v>526296</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="M17" s="7">
         <v>1461</v>
@@ -6426,13 +6438,13 @@
         <v>1042325</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,7 +6500,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6500,13 +6512,13 @@
         <v>60134</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>468</v>
+        <v>342</v>
       </c>
       <c r="H19" s="7">
         <v>106</v>
@@ -6515,13 +6527,13 @@
         <v>53561</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>236</v>
+        <v>474</v>
       </c>
       <c r="M19" s="7">
         <v>200</v>
@@ -6530,13 +6542,13 @@
         <v>113695</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,13 +6563,13 @@
         <v>636136</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>475</v>
+        <v>351</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="H20" s="7">
         <v>1601</v>
@@ -6566,13 +6578,13 @@
         <v>972426</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>244</v>
+        <v>481</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M20" s="7">
         <v>2532</v>
@@ -6581,13 +6593,13 @@
         <v>1608563</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,13 +6667,13 @@
         <v>572801</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H22" s="7">
         <v>627</v>
@@ -6670,13 +6682,13 @@
         <v>501448</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="M22" s="7">
         <v>1126</v>
@@ -6685,13 +6697,13 @@
         <v>1074250</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>75</v>
+        <v>492</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>488</v>
+        <v>199</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6718,13 @@
         <v>2805166</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="H23" s="7">
         <v>4731</v>
@@ -6721,13 +6733,13 @@
         <v>3303022</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="M23" s="7">
         <v>7601</v>
@@ -6736,13 +6748,13 @@
         <v>6108188</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>82</v>
+        <v>500</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>497</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6798,7 +6810,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P45C_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4669ED0D-A8BB-496B-9F12-DE4B41F31806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E79AA14-FBC3-42BE-A4BC-FD8047E61881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{35BD127E-F22C-4AFE-AEB3-53A14F44A154}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AB2FB0E3-A1F2-4FD3-A379-05F0D17B45BC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="579">
   <si>
     <t>Población con alguna quemadura solar en el último año en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>21,07%</t>
@@ -191,7 +191,7 @@
     <t>82,29%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>14,75%</t>
@@ -248,7 +248,7 @@
     <t>88,93%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>16,0%</t>
@@ -305,7 +305,7 @@
     <t>89,13%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>9,65%</t>
@@ -362,802 +362,967 @@
     <t>93,64%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
   </si>
   <si>
     <t>5,31%</t>
   </si>
   <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
   </si>
   <si>
     <t>94,69%</t>
   </si>
   <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2016 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>12,24%</t>
@@ -1199,352 +1364,418 @@
     <t>Población con alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
   <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
     <t>11,11%</t>
   </si>
   <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
   </si>
   <si>
     <t>88,89%</t>
   </si>
   <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
   </si>
 </sst>
 </file>
@@ -1956,8 +2187,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47422C23-DDB0-4697-B9A5-FF08E6662110}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E41811-1EB8-4417-A4E3-6DA16BDA0B60}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2313,7 +2544,7 @@
         <v>1023</v>
       </c>
       <c r="N8" s="7">
-        <v>1087748</v>
+        <v>1087747</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2364,7 +2595,7 @@
         <v>1291</v>
       </c>
       <c r="N9" s="7">
-        <v>1357932</v>
+        <v>1357931</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2849,10 +3080,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D19" s="7">
-        <v>27478</v>
+        <v>15523</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2864,10 +3095,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I19" s="7">
-        <v>19290</v>
+        <v>14701</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2879,10 +3110,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="N19" s="7">
-        <v>46768</v>
+        <v>30223</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2900,10 +3131,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>495</v>
+        <v>287</v>
       </c>
       <c r="D20" s="7">
-        <v>473932</v>
+        <v>276004</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2915,10 +3146,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>639</v>
+        <v>355</v>
       </c>
       <c r="I20" s="7">
-        <v>655311</v>
+        <v>328233</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2930,10 +3161,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>1134</v>
+        <v>642</v>
       </c>
       <c r="N20" s="7">
-        <v>1129243</v>
+        <v>604238</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2951,10 +3182,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>522</v>
+        <v>302</v>
       </c>
       <c r="D21" s="7">
-        <v>501410</v>
+        <v>291527</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2966,10 +3197,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>659</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>674601</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2981,10 +3212,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1181</v>
+        <v>673</v>
       </c>
       <c r="N21" s="7">
-        <v>1176011</v>
+        <v>634461</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2998,55 +3229,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>506</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7">
-        <v>513467</v>
+        <v>11955</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>421</v>
+        <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>418942</v>
+        <v>4589</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>927</v>
+        <v>16</v>
       </c>
       <c r="N22" s="7">
-        <v>932409</v>
+        <v>16545</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,49 +3286,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2700</v>
+        <v>208</v>
       </c>
       <c r="D23" s="7">
-        <v>2755397</v>
+        <v>197928</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>2868</v>
+        <v>284</v>
       </c>
       <c r="I23" s="7">
-        <v>2952057</v>
+        <v>327078</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>5568</v>
+        <v>492</v>
       </c>
       <c r="N23" s="7">
-        <v>5707455</v>
+        <v>525005</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,63 +3337,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>288</v>
+      </c>
+      <c r="I24" s="7">
+        <v>331667</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>508</v>
+      </c>
+      <c r="N24" s="7">
+        <v>541550</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>506</v>
+      </c>
+      <c r="D25" s="7">
+        <v>513467</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>421</v>
+      </c>
+      <c r="I25" s="7">
+        <v>418942</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>927</v>
+      </c>
+      <c r="N25" s="7">
+        <v>932409</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2700</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2755397</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2868</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2952057</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5568</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5707455</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3206</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3268864</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3289</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3370999</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6495</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6639864</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3175,8 +3562,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416F1694-D02D-46AB-A0FE-0CA84CD0099F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61853D1-2249-4E58-BE00-450C674992BC}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3192,7 +3579,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3299,13 +3686,13 @@
         <v>142909</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>127</v>
@@ -3314,13 +3701,13 @@
         <v>127869</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>270</v>
@@ -3329,13 +3716,13 @@
         <v>270778</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3737,13 @@
         <v>307752</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>290</v>
@@ -3365,13 +3752,13 @@
         <v>298159</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>590</v>
@@ -3380,13 +3767,13 @@
         <v>605911</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3841,13 @@
         <v>168465</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>84</v>
@@ -3469,13 +3856,13 @@
         <v>89046</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>250</v>
@@ -3484,13 +3871,13 @@
         <v>257511</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3892,13 @@
         <v>513857</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>485</v>
@@ -3520,13 +3907,13 @@
         <v>519281</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>981</v>
@@ -3535,13 +3922,13 @@
         <v>1033138</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3996,13 @@
         <v>111902</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>99</v>
@@ -3624,13 +4011,13 @@
         <v>108101</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>205</v>
@@ -3639,13 +4026,13 @@
         <v>220003</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +4047,13 @@
         <v>567119</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>562</v>
@@ -3675,13 +4062,13 @@
         <v>596356</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>1104</v>
@@ -3690,13 +4077,13 @@
         <v>1163475</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +4151,13 @@
         <v>101534</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -3779,13 +4166,13 @@
         <v>70629</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>161</v>
@@ -3794,13 +4181,13 @@
         <v>172162</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +4202,13 @@
         <v>506737</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>471</v>
@@ -3830,13 +4217,13 @@
         <v>541296</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>916</v>
@@ -3845,13 +4232,13 @@
         <v>1048034</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,13 +4306,13 @@
         <v>43124</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -3934,13 +4321,13 @@
         <v>41502</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -3949,13 +4336,13 @@
         <v>84626</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +4357,13 @@
         <v>384234</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>365</v>
@@ -3985,13 +4372,13 @@
         <v>404158</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>714</v>
@@ -4000,13 +4387,13 @@
         <v>788392</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,49 +4455,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D19" s="7">
-        <v>29972</v>
+        <v>22561</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="I19" s="7">
-        <v>37543</v>
+        <v>20226</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="N19" s="7">
-        <v>67515</v>
+        <v>42786</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,49 +4506,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>467</v>
+        <v>257</v>
       </c>
       <c r="D20" s="7">
-        <v>521443</v>
+        <v>284286</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
-        <v>644</v>
+        <v>320</v>
       </c>
       <c r="I20" s="7">
-        <v>689488</v>
+        <v>328815</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
-        <v>1111</v>
+        <v>577</v>
       </c>
       <c r="N20" s="7">
-        <v>1210930</v>
+        <v>613102</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,10 +4557,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>496</v>
+        <v>279</v>
       </c>
       <c r="D21" s="7">
-        <v>551415</v>
+        <v>306847</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4185,10 +4572,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>679</v>
+        <v>339</v>
       </c>
       <c r="I21" s="7">
-        <v>727031</v>
+        <v>349041</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4200,10 +4587,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1175</v>
+        <v>618</v>
       </c>
       <c r="N21" s="7">
-        <v>1278445</v>
+        <v>655888</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4217,55 +4604,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>583</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>597905</v>
+        <v>7411</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
-        <v>448</v>
+        <v>16</v>
       </c>
       <c r="I22" s="7">
-        <v>474690</v>
+        <v>17317</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
-        <v>1031</v>
+        <v>23</v>
       </c>
       <c r="N22" s="7">
-        <v>1072595</v>
+        <v>24728</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,49 +4661,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2599</v>
+        <v>210</v>
       </c>
       <c r="D23" s="7">
-        <v>2801143</v>
+        <v>237157</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
-        <v>2817</v>
+        <v>324</v>
       </c>
       <c r="I23" s="7">
-        <v>3048737</v>
+        <v>360673</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
-        <v>5416</v>
+        <v>534</v>
       </c>
       <c r="N23" s="7">
-        <v>5849880</v>
+        <v>597830</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,63 +4712,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>217</v>
+      </c>
+      <c r="D24" s="7">
+        <v>244568</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>340</v>
+      </c>
+      <c r="I24" s="7">
+        <v>377990</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>557</v>
+      </c>
+      <c r="N24" s="7">
+        <v>622558</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>583</v>
+      </c>
+      <c r="D25" s="7">
+        <v>597905</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H25" s="7">
+        <v>448</v>
+      </c>
+      <c r="I25" s="7">
+        <v>474690</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1031</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1072595</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2599</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2801142</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2817</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3048737</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5416</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5849880</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3182</v>
       </c>
-      <c r="D24" s="7">
-        <v>3399048</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3399047</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3265</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3523427</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6447</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6922475</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4394,8 +4937,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F7D9E6-0B4B-453A-AE31-17E77EBFE31F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D980ED-4BF1-47BA-8348-DB32447970FF}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4411,7 +4954,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4518,13 +5061,13 @@
         <v>100261</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="H4" s="7">
         <v>98</v>
@@ -4533,13 +5076,13 @@
         <v>97095</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="M4" s="7">
         <v>189</v>
@@ -4548,13 +5091,13 @@
         <v>197356</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +5112,13 @@
         <v>314551</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="H5" s="7">
         <v>305</v>
@@ -4584,13 +5127,13 @@
         <v>297634</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="M5" s="7">
         <v>603</v>
@@ -4599,13 +5142,13 @@
         <v>612186</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +5216,13 @@
         <v>109496</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -4688,13 +5231,13 @@
         <v>125148</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="M7" s="7">
         <v>234</v>
@@ -4703,13 +5246,13 @@
         <v>234644</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +5267,13 @@
         <v>475784</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>450</v>
@@ -4739,13 +5282,13 @@
         <v>437456</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>906</v>
@@ -4754,13 +5297,13 @@
         <v>913240</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +5371,13 @@
         <v>82366</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="H10" s="7">
         <v>88</v>
@@ -4843,13 +5386,13 @@
         <v>88015</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -4861,10 +5404,10 @@
         <v>75</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +5422,13 @@
         <v>583727</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="H11" s="7">
         <v>573</v>
@@ -4894,13 +5437,13 @@
         <v>568781</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="M11" s="7">
         <v>1129</v>
@@ -4912,10 +5455,10 @@
         <v>83</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,13 +5526,13 @@
         <v>78187</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -4998,13 +5541,13 @@
         <v>71699</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="M13" s="7">
         <v>138</v>
@@ -5013,13 +5556,13 @@
         <v>149886</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,13 +5577,13 @@
         <v>564689</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="H14" s="7">
         <v>530</v>
@@ -5049,13 +5592,13 @@
         <v>571009</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="M14" s="7">
         <v>1037</v>
@@ -5064,13 +5607,13 @@
         <v>1135698</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,13 +5681,13 @@
         <v>50504</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -5153,13 +5696,13 @@
         <v>51954</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -5168,13 +5711,13 @@
         <v>102458</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,13 +5732,13 @@
         <v>423944</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="H17" s="7">
         <v>385</v>
@@ -5204,13 +5747,13 @@
         <v>441273</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="M17" s="7">
         <v>762</v>
@@ -5219,13 +5762,13 @@
         <v>865218</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,49 +5830,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D19" s="7">
-        <v>32340</v>
+        <v>20677</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="H19" s="7">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I19" s="7">
-        <v>43536</v>
+        <v>29182</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>340</v>
+        <v>399</v>
       </c>
       <c r="M19" s="7">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="N19" s="7">
-        <v>75876</v>
+        <v>49859</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,49 +5881,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>587</v>
+        <v>302</v>
       </c>
       <c r="D20" s="7">
-        <v>549422</v>
+        <v>308803</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="H20" s="7">
-        <v>609</v>
+        <v>322</v>
       </c>
       <c r="I20" s="7">
-        <v>724608</v>
+        <v>343565</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>350</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="M20" s="7">
-        <v>1196</v>
+        <v>624</v>
       </c>
       <c r="N20" s="7">
-        <v>1274030</v>
+        <v>652368</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,10 +5932,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>618</v>
+        <v>321</v>
       </c>
       <c r="D21" s="7">
-        <v>581762</v>
+        <v>329480</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5404,10 +5947,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>647</v>
+        <v>349</v>
       </c>
       <c r="I21" s="7">
-        <v>768144</v>
+        <v>372747</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5419,10 +5962,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1265</v>
+        <v>670</v>
       </c>
       <c r="N21" s="7">
-        <v>1349906</v>
+        <v>702227</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5436,55 +5979,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>423</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7">
-        <v>453154</v>
+        <v>11664</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="H22" s="7">
-        <v>463</v>
+        <v>11</v>
       </c>
       <c r="I22" s="7">
-        <v>477446</v>
+        <v>14354</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>416</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>376</v>
+        <v>279</v>
       </c>
       <c r="M22" s="7">
-        <v>886</v>
+        <v>23</v>
       </c>
       <c r="N22" s="7">
-        <v>930600</v>
+        <v>26017</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>347</v>
+        <v>418</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,49 +6036,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2781</v>
+        <v>285</v>
       </c>
       <c r="D23" s="7">
-        <v>2912118</v>
+        <v>240618</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>420</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="H23" s="7">
-        <v>2852</v>
+        <v>287</v>
       </c>
       <c r="I23" s="7">
-        <v>3040762</v>
+        <v>381042</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>382</v>
+        <v>287</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>424</v>
       </c>
       <c r="M23" s="7">
-        <v>5633</v>
+        <v>572</v>
       </c>
       <c r="N23" s="7">
-        <v>5952880</v>
+        <v>621662</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>355</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,63 +6087,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>297</v>
+      </c>
+      <c r="D24" s="7">
+        <v>252282</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>298</v>
+      </c>
+      <c r="I24" s="7">
+        <v>395396</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>595</v>
+      </c>
+      <c r="N24" s="7">
+        <v>647679</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>423</v>
+      </c>
+      <c r="D25" s="7">
+        <v>453154</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="H25" s="7">
+        <v>463</v>
+      </c>
+      <c r="I25" s="7">
+        <v>477446</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="M25" s="7">
+        <v>886</v>
+      </c>
+      <c r="N25" s="7">
+        <v>930600</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2781</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2912118</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2852</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3040762</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5633</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5952880</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3204</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3365272</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3315</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3518208</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6519</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6883480</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5613,8 +6312,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F099B756-6BAE-4A8B-BA54-A09ACF70BF61}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CEDB96-B73E-4008-9AC0-544675711EB0}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5630,7 +6329,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>385</v>
+        <v>440</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5734,46 +6433,46 @@
         <v>37</v>
       </c>
       <c r="D4" s="7">
-        <v>85298</v>
+        <v>83301</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="H4" s="7">
         <v>46</v>
       </c>
       <c r="I4" s="7">
-        <v>77724</v>
+        <v>68905</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="M4" s="7">
         <v>83</v>
       </c>
       <c r="N4" s="7">
-        <v>163022</v>
+        <v>152207</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,46 +6484,46 @@
         <v>135</v>
       </c>
       <c r="D5" s="7">
-        <v>292381</v>
+        <v>316686</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>397</v>
+        <v>452</v>
       </c>
       <c r="H5" s="7">
         <v>161</v>
       </c>
       <c r="I5" s="7">
-        <v>277233</v>
+        <v>244295</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>398</v>
+        <v>453</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="M5" s="7">
         <v>296</v>
       </c>
       <c r="N5" s="7">
-        <v>569614</v>
+        <v>560980</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>401</v>
+        <v>456</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>402</v>
+        <v>457</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,7 +6535,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5851,7 +6550,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5866,7 +6565,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5889,46 +6588,46 @@
         <v>75</v>
       </c>
       <c r="D7" s="7">
-        <v>116263</v>
+        <v>110044</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="H7" s="7">
         <v>87</v>
       </c>
       <c r="I7" s="7">
-        <v>101881</v>
+        <v>89988</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>293</v>
+        <v>462</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>407</v>
+        <v>346</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>326</v>
       </c>
       <c r="M7" s="7">
         <v>162</v>
       </c>
       <c r="N7" s="7">
-        <v>218145</v>
+        <v>200032</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,46 +6639,46 @@
         <v>227</v>
       </c>
       <c r="D8" s="7">
-        <v>312133</v>
+        <v>313503</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>411</v>
+        <v>466</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>412</v>
+        <v>467</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>413</v>
+        <v>468</v>
       </c>
       <c r="H8" s="7">
         <v>372</v>
       </c>
       <c r="I8" s="7">
-        <v>396536</v>
+        <v>421354</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>302</v>
+        <v>469</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>171</v>
+        <v>334</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>414</v>
+        <v>355</v>
       </c>
       <c r="M8" s="7">
         <v>599</v>
       </c>
       <c r="N8" s="7">
-        <v>708669</v>
+        <v>734857</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>416</v>
+        <v>471</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>417</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,7 +6690,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6006,7 +6705,7 @@
         <v>459</v>
       </c>
       <c r="I9" s="7">
-        <v>498417</v>
+        <v>511342</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6021,7 +6720,7 @@
         <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>926814</v>
+        <v>934889</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6044,46 +6743,46 @@
         <v>107</v>
       </c>
       <c r="D10" s="7">
-        <v>119323</v>
+        <v>111202</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>418</v>
+        <v>473</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>188</v>
+        <v>474</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="H10" s="7">
         <v>125</v>
       </c>
       <c r="I10" s="7">
-        <v>93920</v>
+        <v>85184</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="M10" s="7">
         <v>232</v>
       </c>
       <c r="N10" s="7">
-        <v>213243</v>
+        <v>196386</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,46 +6794,46 @@
         <v>437</v>
       </c>
       <c r="D11" s="7">
-        <v>434315</v>
+        <v>421381</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>482</v>
       </c>
       <c r="H11" s="7">
         <v>721</v>
       </c>
       <c r="I11" s="7">
-        <v>489556</v>
+        <v>457284</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="M11" s="7">
         <v>1158</v>
       </c>
       <c r="N11" s="7">
-        <v>923871</v>
+        <v>878664</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>433</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,7 +6845,7 @@
         <v>544</v>
       </c>
       <c r="D12" s="7">
-        <v>553638</v>
+        <v>532583</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6161,7 +6860,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6176,7 +6875,7 @@
         <v>1390</v>
       </c>
       <c r="N12" s="7">
-        <v>1137114</v>
+        <v>1075050</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6199,46 +6898,46 @@
         <v>98</v>
       </c>
       <c r="D13" s="7">
-        <v>108673</v>
+        <v>98490</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
       <c r="H13" s="7">
         <v>149</v>
       </c>
       <c r="I13" s="7">
-        <v>104242</v>
+        <v>94722</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="M13" s="7">
         <v>247</v>
       </c>
       <c r="N13" s="7">
-        <v>212914</v>
+        <v>193213</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,46 +6949,46 @@
         <v>566</v>
       </c>
       <c r="D14" s="7">
-        <v>614171</v>
+        <v>788169</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="H14" s="7">
         <v>989</v>
       </c>
       <c r="I14" s="7">
-        <v>640974</v>
+        <v>616426</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="M14" s="7">
         <v>1555</v>
       </c>
       <c r="N14" s="7">
-        <v>1255146</v>
+        <v>1404594</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,7 +7000,7 @@
         <v>664</v>
       </c>
       <c r="D15" s="7">
-        <v>722844</v>
+        <v>886659</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6316,7 +7015,7 @@
         <v>1138</v>
       </c>
       <c r="I15" s="7">
-        <v>745216</v>
+        <v>711148</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6331,7 +7030,7 @@
         <v>1802</v>
       </c>
       <c r="N15" s="7">
-        <v>1468060</v>
+        <v>1597807</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6354,46 +7053,46 @@
         <v>88</v>
       </c>
       <c r="D16" s="7">
-        <v>83111</v>
+        <v>74442</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="H16" s="7">
         <v>114</v>
       </c>
       <c r="I16" s="7">
-        <v>70121</v>
+        <v>63540</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="M16" s="7">
         <v>202</v>
       </c>
       <c r="N16" s="7">
-        <v>153232</v>
+        <v>137981</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6405,46 +7104,46 @@
         <v>574</v>
       </c>
       <c r="D17" s="7">
-        <v>516029</v>
+        <v>485786</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="H17" s="7">
         <v>887</v>
       </c>
       <c r="I17" s="7">
-        <v>526296</v>
+        <v>483816</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="M17" s="7">
         <v>1461</v>
       </c>
       <c r="N17" s="7">
-        <v>1042325</v>
+        <v>969603</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,7 +7155,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599140</v>
+        <v>560228</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6471,7 +7170,7 @@
         <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>596417</v>
+        <v>547356</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6486,7 +7185,7 @@
         <v>1663</v>
       </c>
       <c r="N18" s="7">
-        <v>1195557</v>
+        <v>1107584</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6506,49 +7205,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="D19" s="7">
-        <v>60134</v>
+        <v>33427</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>342</v>
+        <v>527</v>
       </c>
       <c r="H19" s="7">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="I19" s="7">
-        <v>53561</v>
+        <v>28042</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="M19" s="7">
-        <v>200</v>
+        <v>116</v>
       </c>
       <c r="N19" s="7">
-        <v>113695</v>
+        <v>61469</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>475</v>
+        <v>531</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,49 +7256,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>931</v>
+        <v>512</v>
       </c>
       <c r="D20" s="7">
-        <v>636136</v>
+        <v>333681</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>351</v>
+        <v>535</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
       <c r="H20" s="7">
-        <v>1601</v>
+        <v>766</v>
       </c>
       <c r="I20" s="7">
-        <v>972426</v>
+        <v>579733</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="M20" s="7">
-        <v>2532</v>
+        <v>1278</v>
       </c>
       <c r="N20" s="7">
-        <v>1608563</v>
+        <v>913414</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6608,10 +7307,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1025</v>
+        <v>568</v>
       </c>
       <c r="D21" s="7">
-        <v>696270</v>
+        <v>367108</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6623,10 +7322,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1707</v>
+        <v>826</v>
       </c>
       <c r="I21" s="7">
-        <v>1025987</v>
+        <v>607775</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6638,10 +7337,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2732</v>
+        <v>1394</v>
       </c>
       <c r="N21" s="7">
-        <v>1722258</v>
+        <v>974883</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6655,55 +7354,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>499</v>
+        <v>38</v>
       </c>
       <c r="D22" s="7">
-        <v>572801</v>
+        <v>21110</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>486</v>
+        <v>543</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="H22" s="7">
-        <v>627</v>
+        <v>46</v>
       </c>
       <c r="I22" s="7">
-        <v>501448</v>
+        <v>20061</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="M22" s="7">
-        <v>1126</v>
+        <v>84</v>
       </c>
       <c r="N22" s="7">
-        <v>1074250</v>
+        <v>41171</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>199</v>
+        <v>550</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,49 +7411,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2870</v>
+        <v>419</v>
       </c>
       <c r="D23" s="7">
-        <v>2805166</v>
+        <v>261308</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>496</v>
+        <v>554</v>
       </c>
       <c r="H23" s="7">
-        <v>4731</v>
+        <v>835</v>
       </c>
       <c r="I23" s="7">
-        <v>3303022</v>
+        <v>405770</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>499</v>
+        <v>557</v>
       </c>
       <c r="M23" s="7">
-        <v>7601</v>
+        <v>1254</v>
       </c>
       <c r="N23" s="7">
-        <v>6108188</v>
+        <v>667078</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>209</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,63 +7462,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282418</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708249</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>499</v>
+      </c>
+      <c r="D25" s="7">
+        <v>532017</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="H25" s="7">
+        <v>627</v>
+      </c>
+      <c r="I25" s="7">
+        <v>450443</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1126</v>
+      </c>
+      <c r="N25" s="7">
+        <v>982460</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2870</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2920513</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4731</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3208677</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7601</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6129190</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3369</v>
       </c>
-      <c r="D24" s="7">
-        <v>3377967</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3452530</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5358</v>
       </c>
-      <c r="I24" s="7">
-        <v>3804470</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3659120</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8727</v>
       </c>
-      <c r="N24" s="7">
-        <v>7182438</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>7111650</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/P45C_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R2-Edad-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año en 2007</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año en 2007</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3533,7 +3533,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año en 2012</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año en 2012</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6520,7 +6520,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año en 2016</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año en 2016</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -9507,7 +9507,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año en 2023</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
